--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H2">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I2">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J2">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.066578</v>
+        <v>0.9701385</v>
       </c>
       <c r="N2">
-        <v>2.133156</v>
+        <v>1.940277</v>
       </c>
       <c r="O2">
-        <v>0.04225646909530822</v>
+        <v>0.03685791214400379</v>
       </c>
       <c r="P2">
-        <v>0.02920508864123014</v>
+        <v>0.02551201953426279</v>
       </c>
       <c r="Q2">
-        <v>48.476615912979</v>
+        <v>75.9175606378905</v>
       </c>
       <c r="R2">
-        <v>193.906463651916</v>
+        <v>303.670242551562</v>
       </c>
       <c r="S2">
-        <v>0.00461627652858822</v>
+        <v>0.006634779687740279</v>
       </c>
       <c r="T2">
-        <v>0.002379195886573566</v>
+        <v>0.003436475706466406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H3">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I3">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J3">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>13.891775</v>
       </c>
       <c r="O3">
-        <v>0.1834581752628422</v>
+        <v>0.175927396783816</v>
       </c>
       <c r="P3">
-        <v>0.1901926161326339</v>
+        <v>0.1826580612796953</v>
       </c>
       <c r="Q3">
-        <v>210.4631950732542</v>
+        <v>362.3639548821917</v>
       </c>
       <c r="R3">
-        <v>1262.779170439525</v>
+        <v>2174.18372929315</v>
       </c>
       <c r="S3">
-        <v>0.02004175186841426</v>
+        <v>0.03166862827546727</v>
       </c>
       <c r="T3">
-        <v>0.01549406322707083</v>
+        <v>0.02460408864672279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H4">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I4">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J4">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.611809666666668</v>
+        <v>4.954984666666666</v>
       </c>
       <c r="N4">
-        <v>25.835429</v>
+        <v>14.864954</v>
       </c>
       <c r="O4">
-        <v>0.3411889885542141</v>
+        <v>0.1882518728190727</v>
       </c>
       <c r="P4">
-        <v>0.353713462132731</v>
+        <v>0.1954540495114449</v>
       </c>
       <c r="Q4">
-        <v>391.4119638007533</v>
+        <v>387.7491192149207</v>
       </c>
       <c r="R4">
-        <v>2348.471782804519</v>
+        <v>2326.494715289524</v>
       </c>
       <c r="S4">
-        <v>0.03727293721875239</v>
+        <v>0.0338871528338114</v>
       </c>
       <c r="T4">
-        <v>0.02881530764963436</v>
+        <v>0.02632771160960039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H5">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I5">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J5">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.614618</v>
+        <v>1.939529</v>
       </c>
       <c r="N5">
-        <v>3.229236</v>
+        <v>3.879058</v>
       </c>
       <c r="O5">
-        <v>0.06396911957468498</v>
+        <v>0.07368740595569348</v>
       </c>
       <c r="P5">
-        <v>0.04421154553321532</v>
+        <v>0.05100436869093348</v>
       </c>
       <c r="Q5">
-        <v>73.385365751199</v>
+        <v>151.776587019737</v>
       </c>
       <c r="R5">
-        <v>293.541463004796</v>
+        <v>607.106348078948</v>
       </c>
       <c r="S5">
-        <v>0.006988258876552915</v>
+        <v>0.01326444380156361</v>
       </c>
       <c r="T5">
-        <v>0.003601698613685674</v>
+        <v>0.006870301807924416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H6">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I6">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J6">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9431123333333332</v>
+        <v>6.591847999999999</v>
       </c>
       <c r="N6">
-        <v>2.829337</v>
+        <v>19.775544</v>
       </c>
       <c r="O6">
-        <v>0.0373649158025986</v>
+        <v>0.2504402767755605</v>
       </c>
       <c r="P6">
-        <v>0.03873651897981777</v>
+        <v>0.2600216694980527</v>
       </c>
       <c r="Q6">
-        <v>42.86502660451783</v>
+        <v>515.8408003143439</v>
       </c>
       <c r="R6">
-        <v>257.190159627107</v>
+        <v>3095.044801886064</v>
       </c>
       <c r="S6">
-        <v>0.004081902428316293</v>
+        <v>0.04508166536537967</v>
       </c>
       <c r="T6">
-        <v>0.003155674949291282</v>
+        <v>0.0350249869158669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H7">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I7">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J7">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.373875333333332</v>
+        <v>7.233946</v>
       </c>
       <c r="N7">
-        <v>25.121626</v>
+        <v>21.701838</v>
       </c>
       <c r="O7">
-        <v>0.331762331710352</v>
+        <v>0.2748351355218535</v>
       </c>
       <c r="P7">
-        <v>0.3439407685803719</v>
+        <v>0.2853498314856108</v>
       </c>
       <c r="Q7">
-        <v>380.5977042815143</v>
+        <v>566.0877638669381</v>
       </c>
       <c r="R7">
-        <v>2283.586225689086</v>
+        <v>3396.526583201628</v>
       </c>
       <c r="S7">
-        <v>0.03624312910503547</v>
+        <v>0.04947297523292813</v>
       </c>
       <c r="T7">
-        <v>0.02801917405161158</v>
+        <v>0.03843669696268599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>240.777241</v>
       </c>
       <c r="I8">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J8">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.066578</v>
+        <v>0.9701385</v>
       </c>
       <c r="N8">
-        <v>2.133156</v>
+        <v>1.940277</v>
       </c>
       <c r="O8">
-        <v>0.04225646909530822</v>
+        <v>0.03685791214400379</v>
       </c>
       <c r="P8">
-        <v>0.02920508864123014</v>
+        <v>0.02551201953426279</v>
       </c>
       <c r="Q8">
-        <v>85.602569383766</v>
+        <v>77.86242380595949</v>
       </c>
       <c r="R8">
-        <v>513.615416302596</v>
+        <v>467.174542835757</v>
       </c>
       <c r="S8">
-        <v>0.008151664970642538</v>
+        <v>0.006804750094251182</v>
       </c>
       <c r="T8">
-        <v>0.006301964683041816</v>
+        <v>0.005286767493729755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>240.777241</v>
       </c>
       <c r="I9">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J9">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>13.891775</v>
       </c>
       <c r="O9">
-        <v>0.1834581752628422</v>
+        <v>0.175927396783816</v>
       </c>
       <c r="P9">
-        <v>0.1901926161326339</v>
+        <v>0.1826580612796953</v>
       </c>
       <c r="Q9">
         <v>371.6470285658639</v>
@@ -1013,10 +1013,10 @@
         <v>3344.823257092775</v>
       </c>
       <c r="S9">
-        <v>0.03539078424879935</v>
+        <v>0.03247991815621042</v>
       </c>
       <c r="T9">
-        <v>0.04104035308939582</v>
+        <v>0.03785159773589424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>240.777241</v>
       </c>
       <c r="I10">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J10">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.611809666666668</v>
+        <v>4.954984666666666</v>
       </c>
       <c r="N10">
-        <v>25.835429</v>
+        <v>14.864954</v>
       </c>
       <c r="O10">
-        <v>0.3411889885542141</v>
+        <v>0.1882518728190727</v>
       </c>
       <c r="P10">
-        <v>0.353713462132731</v>
+        <v>0.1954540495114449</v>
       </c>
       <c r="Q10">
-        <v>691.1759238523766</v>
+        <v>397.6825124124348</v>
       </c>
       <c r="R10">
-        <v>6220.583314671389</v>
+        <v>3579.142611711914</v>
       </c>
       <c r="S10">
-        <v>0.06581852165861987</v>
+        <v>0.03475527708416186</v>
       </c>
       <c r="T10">
-        <v>0.07632538882727487</v>
+        <v>0.04050326608158942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>240.777241</v>
       </c>
       <c r="I11">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J11">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.614618</v>
+        <v>1.939529</v>
       </c>
       <c r="N11">
-        <v>3.229236</v>
+        <v>3.879058</v>
       </c>
       <c r="O11">
-        <v>0.06396911957468498</v>
+        <v>0.07368740595569348</v>
       </c>
       <c r="P11">
-        <v>0.04421154553321532</v>
+        <v>0.05100436869093348</v>
       </c>
       <c r="Q11">
-        <v>129.587755769646</v>
+        <v>155.6648138198296</v>
       </c>
       <c r="R11">
-        <v>777.5265346178761</v>
+        <v>933.9888829189779</v>
       </c>
       <c r="S11">
-        <v>0.01234023671177252</v>
+        <v>0.01360425356333441</v>
       </c>
       <c r="T11">
-        <v>0.009540104533005191</v>
+        <v>0.01056945876320358</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>240.777241</v>
       </c>
       <c r="I12">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J12">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9431123333333332</v>
+        <v>6.591847999999999</v>
       </c>
       <c r="N12">
-        <v>2.829337</v>
+        <v>19.775544</v>
       </c>
       <c r="O12">
-        <v>0.0373649158025986</v>
+        <v>0.2504402767755605</v>
       </c>
       <c r="P12">
-        <v>0.03873651897981777</v>
+        <v>0.2600216694980527</v>
       </c>
       <c r="Q12">
-        <v>75.69332852435743</v>
+        <v>529.0556581771225</v>
       </c>
       <c r="R12">
-        <v>681.2399567192169</v>
+        <v>4761.500923594103</v>
       </c>
       <c r="S12">
-        <v>0.007208038953563903</v>
+        <v>0.04623657168465066</v>
       </c>
       <c r="T12">
-        <v>0.008358686308185374</v>
+        <v>0.0538833904592089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>240.777241</v>
       </c>
       <c r="I13">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J13">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.373875333333332</v>
+        <v>7.233946</v>
       </c>
       <c r="N13">
-        <v>25.121626</v>
+        <v>21.701838</v>
       </c>
       <c r="O13">
-        <v>0.331762331710352</v>
+        <v>0.2748351355218535</v>
       </c>
       <c r="P13">
-        <v>0.3439407685803719</v>
+        <v>0.2853498314856108</v>
       </c>
       <c r="Q13">
-        <v>672.0795330793184</v>
+        <v>580.5898531409953</v>
       </c>
       <c r="R13">
-        <v>6048.715797713866</v>
+        <v>5225.308678268958</v>
       </c>
       <c r="S13">
-        <v>0.06400003208697436</v>
+        <v>0.05074037853905186</v>
       </c>
       <c r="T13">
-        <v>0.07421660667695425</v>
+        <v>0.05913205778999036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H14">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I14">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J14">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.066578</v>
+        <v>0.9701385</v>
       </c>
       <c r="N14">
-        <v>2.133156</v>
+        <v>1.940277</v>
       </c>
       <c r="O14">
-        <v>0.04225646909530822</v>
+        <v>0.03685791214400379</v>
       </c>
       <c r="P14">
-        <v>0.02920508864123014</v>
+        <v>0.02551201953426279</v>
       </c>
       <c r="Q14">
-        <v>87.57620228967001</v>
+        <v>71.718300941804</v>
       </c>
       <c r="R14">
-        <v>525.4572137380201</v>
+        <v>430.309805650824</v>
       </c>
       <c r="S14">
-        <v>0.008339607859971468</v>
+        <v>0.006267787351566143</v>
       </c>
       <c r="T14">
-        <v>0.006447261313269541</v>
+        <v>0.004869588738587883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H15">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I15">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J15">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>13.891775</v>
       </c>
       <c r="O15">
-        <v>0.1834581752628422</v>
+        <v>0.175927396783816</v>
       </c>
       <c r="P15">
-        <v>0.1901926161326339</v>
+        <v>0.1826580612796953</v>
       </c>
       <c r="Q15">
-        <v>380.2156359130417</v>
+        <v>342.3203663070889</v>
       </c>
       <c r="R15">
-        <v>3421.940723217375</v>
+        <v>3080.8832967638</v>
       </c>
       <c r="S15">
-        <v>0.03620674592917884</v>
+        <v>0.02991692823097003</v>
       </c>
       <c r="T15">
-        <v>0.04198656991337951</v>
+        <v>0.0348647286438981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H16">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I16">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J16">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.611809666666668</v>
+        <v>4.954984666666666</v>
       </c>
       <c r="N16">
-        <v>25.835429</v>
+        <v>14.864954</v>
       </c>
       <c r="O16">
-        <v>0.3411889885542141</v>
+        <v>0.1882518728190727</v>
       </c>
       <c r="P16">
-        <v>0.353713462132731</v>
+        <v>0.1954540495114449</v>
       </c>
       <c r="Q16">
-        <v>707.1115150023118</v>
+        <v>366.3013904571609</v>
       </c>
       <c r="R16">
-        <v>6364.003635020806</v>
+        <v>3296.712514114448</v>
       </c>
       <c r="S16">
-        <v>0.06733601816717727</v>
+        <v>0.03201273861509209</v>
       </c>
       <c r="T16">
-        <v>0.07808512921859535</v>
+        <v>0.03730715387443488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H17">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I17">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J17">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.614618</v>
+        <v>1.939529</v>
       </c>
       <c r="N17">
-        <v>3.229236</v>
+        <v>3.879058</v>
       </c>
       <c r="O17">
-        <v>0.06396911957468498</v>
+        <v>0.07368740595569348</v>
       </c>
       <c r="P17">
-        <v>0.04421154553321532</v>
+        <v>0.05100436869093348</v>
       </c>
       <c r="Q17">
-        <v>132.57550089027</v>
+        <v>143.3813053572827</v>
       </c>
       <c r="R17">
-        <v>795.4530053416202</v>
+        <v>860.2878321436959</v>
       </c>
       <c r="S17">
-        <v>0.01262475033579486</v>
+        <v>0.01253074208908906</v>
       </c>
       <c r="T17">
-        <v>0.009760058961565531</v>
+        <v>0.009735422907723605</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H18">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I18">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J18">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9431123333333332</v>
+        <v>6.591847999999999</v>
       </c>
       <c r="N18">
-        <v>2.829337</v>
+        <v>19.775544</v>
       </c>
       <c r="O18">
-        <v>0.0373649158025986</v>
+        <v>0.2504402767755605</v>
       </c>
       <c r="P18">
-        <v>0.03873651897981777</v>
+        <v>0.2600216694980527</v>
       </c>
       <c r="Q18">
-        <v>77.43849628051832</v>
+        <v>487.3078829740586</v>
       </c>
       <c r="R18">
-        <v>696.946466524665</v>
+        <v>4385.770946766527</v>
       </c>
       <c r="S18">
-        <v>0.007374225821180163</v>
+        <v>0.04258804440587254</v>
       </c>
       <c r="T18">
-        <v>0.008551402233264751</v>
+        <v>0.04963145280897993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H19">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I19">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J19">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.373875333333332</v>
+        <v>7.233946</v>
       </c>
       <c r="N19">
-        <v>25.121626</v>
+        <v>21.701838</v>
       </c>
       <c r="O19">
-        <v>0.331762331710352</v>
+        <v>0.2748351355218535</v>
       </c>
       <c r="P19">
-        <v>0.3439407685803719</v>
+        <v>0.2853498314856108</v>
       </c>
       <c r="Q19">
-        <v>687.5748422904633</v>
+        <v>534.7755152741173</v>
       </c>
       <c r="R19">
-        <v>6188.173580614171</v>
+        <v>4812.979637467056</v>
       </c>
       <c r="S19">
-        <v>0.06547560192342974</v>
+        <v>0.04673645591914195</v>
       </c>
       <c r="T19">
-        <v>0.07592772747807766</v>
+        <v>0.05446594786798924</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H20">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I20">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J20">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.066578</v>
+        <v>0.9701385</v>
       </c>
       <c r="N20">
-        <v>2.133156</v>
+        <v>1.940277</v>
       </c>
       <c r="O20">
-        <v>0.04225646909530822</v>
+        <v>0.03685791214400379</v>
       </c>
       <c r="P20">
-        <v>0.02920508864123014</v>
+        <v>0.02551201953426279</v>
       </c>
       <c r="Q20">
-        <v>92.639399509746</v>
+        <v>62.09999779449525</v>
       </c>
       <c r="R20">
-        <v>370.557598038984</v>
+        <v>248.399991177981</v>
       </c>
       <c r="S20">
-        <v>0.008821760296696988</v>
+        <v>0.005427200248712864</v>
       </c>
       <c r="T20">
-        <v>0.00454667212422354</v>
+        <v>0.002811011470854474</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H21">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I21">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J21">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>13.891775</v>
       </c>
       <c r="O21">
-        <v>0.1834581752628422</v>
+        <v>0.175927396783816</v>
       </c>
       <c r="P21">
-        <v>0.1901926161326339</v>
+        <v>0.1826580612796953</v>
       </c>
       <c r="Q21">
-        <v>402.197712098725</v>
+        <v>296.4110096519292</v>
       </c>
       <c r="R21">
-        <v>2413.18627259235</v>
+        <v>1778.466057911575</v>
       </c>
       <c r="S21">
-        <v>0.03830003029803346</v>
+        <v>0.0259047014885205</v>
       </c>
       <c r="T21">
-        <v>0.0296093422836799</v>
+        <v>0.02012596081669236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H22">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I22">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J22">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.611809666666668</v>
+        <v>4.954984666666666</v>
       </c>
       <c r="N22">
-        <v>25.835429</v>
+        <v>14.864954</v>
       </c>
       <c r="O22">
-        <v>0.3411889885542141</v>
+        <v>0.1882518728190727</v>
       </c>
       <c r="P22">
-        <v>0.353713462132731</v>
+        <v>0.1954540495114449</v>
       </c>
       <c r="Q22">
-        <v>747.992998366951</v>
+        <v>317.1758845481937</v>
       </c>
       <c r="R22">
-        <v>4487.957990201706</v>
+        <v>1903.055307289162</v>
       </c>
       <c r="S22">
-        <v>0.07122903397605364</v>
+        <v>0.02771943801354318</v>
       </c>
       <c r="T22">
-        <v>0.05506640154384231</v>
+        <v>0.02153587153160301</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H23">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I23">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J23">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.614618</v>
+        <v>1.939529</v>
       </c>
       <c r="N23">
-        <v>3.229236</v>
+        <v>3.879058</v>
       </c>
       <c r="O23">
-        <v>0.06396911957468498</v>
+        <v>0.07368740595569348</v>
       </c>
       <c r="P23">
-        <v>0.04421154553321532</v>
+        <v>0.05100436869093348</v>
       </c>
       <c r="Q23">
-        <v>140.240321812026</v>
+        <v>124.1521150045685</v>
       </c>
       <c r="R23">
-        <v>560.961287248104</v>
+        <v>496.6084600182739</v>
       </c>
       <c r="S23">
-        <v>0.01335464726136513</v>
+        <v>0.010850215996155</v>
       </c>
       <c r="T23">
-        <v>0.006882889626327906</v>
+        <v>0.005619855584594269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H24">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I24">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J24">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9431123333333332</v>
+        <v>6.591847999999999</v>
       </c>
       <c r="N24">
-        <v>2.829337</v>
+        <v>19.775544</v>
       </c>
       <c r="O24">
-        <v>0.0373649158025986</v>
+        <v>0.2504402767755605</v>
       </c>
       <c r="P24">
-        <v>0.03873651897981777</v>
+        <v>0.2600216694980527</v>
       </c>
       <c r="Q24">
-        <v>81.91558444880299</v>
+        <v>421.9539233435719</v>
       </c>
       <c r="R24">
-        <v>491.493506692818</v>
+        <v>2531.723540061432</v>
       </c>
       <c r="S24">
-        <v>0.00780056492588939</v>
+        <v>0.03687646568513402</v>
       </c>
       <c r="T24">
-        <v>0.006030533007400424</v>
+        <v>0.02865017779749354</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H25">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I25">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J25">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.373875333333332</v>
+        <v>7.233946</v>
       </c>
       <c r="N25">
-        <v>25.121626</v>
+        <v>21.701838</v>
       </c>
       <c r="O25">
-        <v>0.331762331710352</v>
+        <v>0.2748351355218535</v>
       </c>
       <c r="P25">
-        <v>0.3439407685803719</v>
+        <v>0.2853498314856108</v>
       </c>
       <c r="Q25">
-        <v>727.3268175880939</v>
+        <v>463.055564381269</v>
       </c>
       <c r="R25">
-        <v>4363.960905528564</v>
+        <v>2778.333386287614</v>
       </c>
       <c r="S25">
-        <v>0.06926105821148594</v>
+        <v>0.04046852437087635</v>
       </c>
       <c r="T25">
-        <v>0.05354498060590473</v>
+        <v>0.03144093114365913</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H26">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I26">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J26">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.066578</v>
+        <v>0.9701385</v>
       </c>
       <c r="N26">
-        <v>2.133156</v>
+        <v>1.940277</v>
       </c>
       <c r="O26">
-        <v>0.04225646909530822</v>
+        <v>0.03685791214400379</v>
       </c>
       <c r="P26">
-        <v>0.02920508864123014</v>
+        <v>0.02551201953426279</v>
       </c>
       <c r="Q26">
-        <v>46.37849042304801</v>
+        <v>54.7993419417475</v>
       </c>
       <c r="R26">
-        <v>278.2709425382881</v>
+        <v>328.796051650485</v>
       </c>
       <c r="S26">
-        <v>0.004416478599818034</v>
+        <v>0.004789162846667869</v>
       </c>
       <c r="T26">
-        <v>0.003414332195901002</v>
+        <v>0.003720811214115301</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H27">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I27">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J27">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>13.891775</v>
       </c>
       <c r="O27">
-        <v>0.1834581752628422</v>
+        <v>0.175927396783816</v>
       </c>
       <c r="P27">
-        <v>0.1901926161326339</v>
+        <v>0.1826580612796953</v>
       </c>
       <c r="Q27">
-        <v>201.3540981208556</v>
+        <v>261.5640716601528</v>
       </c>
       <c r="R27">
-        <v>1812.1868830877</v>
+        <v>2354.076644941375</v>
       </c>
       <c r="S27">
-        <v>0.01917432105324604</v>
+        <v>0.02285926964870464</v>
       </c>
       <c r="T27">
-        <v>0.02223519266322418</v>
+        <v>0.02663984173598232</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H28">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I28">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J28">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.611809666666668</v>
+        <v>4.954984666666666</v>
       </c>
       <c r="N28">
-        <v>25.835429</v>
+        <v>14.864954</v>
       </c>
       <c r="O28">
-        <v>0.3411889885542141</v>
+        <v>0.1882518728190727</v>
       </c>
       <c r="P28">
-        <v>0.353713462132731</v>
+        <v>0.1954540495114449</v>
       </c>
       <c r="Q28">
-        <v>374.4711893088103</v>
+        <v>279.8877676381077</v>
       </c>
       <c r="R28">
-        <v>3370.240703779293</v>
+        <v>2518.98990874297</v>
       </c>
       <c r="S28">
-        <v>0.03565972024412599</v>
+        <v>0.02446066048446585</v>
       </c>
       <c r="T28">
-        <v>0.04135222038595134</v>
+        <v>0.02850607801901897</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H29">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I29">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J29">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.614618</v>
+        <v>1.939529</v>
       </c>
       <c r="N29">
-        <v>3.229236</v>
+        <v>3.879058</v>
       </c>
       <c r="O29">
-        <v>0.06396911957468498</v>
+        <v>0.07368740595569348</v>
       </c>
       <c r="P29">
-        <v>0.04421154553321532</v>
+        <v>0.05100436869093348</v>
       </c>
       <c r="Q29">
-        <v>70.20915999568801</v>
+        <v>109.5564322794483</v>
       </c>
       <c r="R29">
-        <v>421.2549599741281</v>
+        <v>657.3385936766899</v>
       </c>
       <c r="S29">
-        <v>0.006685798735658333</v>
+        <v>0.00957463313417093</v>
       </c>
       <c r="T29">
-        <v>0.005168719232424899</v>
+        <v>0.00743875359374134</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H30">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I30">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J30">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9431123333333332</v>
+        <v>6.591847999999999</v>
       </c>
       <c r="N30">
-        <v>2.829337</v>
+        <v>19.775544</v>
       </c>
       <c r="O30">
-        <v>0.0373649158025986</v>
+        <v>0.2504402767755605</v>
       </c>
       <c r="P30">
-        <v>0.03873651897981777</v>
+        <v>0.2600216694980527</v>
       </c>
       <c r="Q30">
-        <v>41.00977736214178</v>
+        <v>372.3477962992133</v>
       </c>
       <c r="R30">
-        <v>369.087996259276</v>
+        <v>3351.130166692919</v>
       </c>
       <c r="S30">
-        <v>0.003905232845034416</v>
+        <v>0.03254116142435529</v>
       </c>
       <c r="T30">
-        <v>0.004528640386429287</v>
+        <v>0.0379229696999091</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H31">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I31">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J31">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.373875333333332</v>
+        <v>7.233946</v>
       </c>
       <c r="N31">
-        <v>25.121626</v>
+        <v>21.701838</v>
       </c>
       <c r="O31">
-        <v>0.331762331710352</v>
+        <v>0.2748351355218535</v>
       </c>
       <c r="P31">
-        <v>0.3439407685803719</v>
+        <v>0.2853498314856108</v>
       </c>
       <c r="Q31">
-        <v>364.1249837806498</v>
+        <v>408.6174092071766</v>
       </c>
       <c r="R31">
-        <v>3277.124854025848</v>
+        <v>3677.55668286459</v>
       </c>
       <c r="S31">
-        <v>0.03467448344819672</v>
+        <v>0.03571092727275708</v>
       </c>
       <c r="T31">
-        <v>0.04020970639989935</v>
+        <v>0.04161696613283235</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H32">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I32">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J32">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.066578</v>
+        <v>0.9701385</v>
       </c>
       <c r="N32">
-        <v>2.133156</v>
+        <v>1.940277</v>
       </c>
       <c r="O32">
-        <v>0.04225646909530822</v>
+        <v>0.03685791214400379</v>
       </c>
       <c r="P32">
-        <v>0.02920508864123014</v>
+        <v>0.02551201953426279</v>
       </c>
       <c r="Q32">
-        <v>83.07193780444801</v>
+        <v>79.34400186066651</v>
       </c>
       <c r="R32">
-        <v>498.4316268266881</v>
+        <v>476.064011163999</v>
       </c>
       <c r="S32">
-        <v>0.007910680839590971</v>
+        <v>0.006934231915065453</v>
       </c>
       <c r="T32">
-        <v>0.006115662438220684</v>
+        <v>0.005387364910508975</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H33">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I33">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J33">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>13.891775</v>
       </c>
       <c r="O33">
-        <v>0.1834581752628422</v>
+        <v>0.175927396783816</v>
       </c>
       <c r="P33">
-        <v>0.1901926161326339</v>
+        <v>0.1826580612796953</v>
       </c>
       <c r="Q33">
-        <v>360.6601888761334</v>
+        <v>378.7187848085472</v>
       </c>
       <c r="R33">
-        <v>3245.941699885201</v>
+        <v>3408.469063276925</v>
       </c>
       <c r="S33">
-        <v>0.03434454186517032</v>
+        <v>0.03309795098394314</v>
       </c>
       <c r="T33">
-        <v>0.03982709495588375</v>
+        <v>0.03857184370050554</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H34">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I34">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J34">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.611809666666668</v>
+        <v>4.954984666666666</v>
       </c>
       <c r="N34">
-        <v>25.835429</v>
+        <v>14.864954</v>
       </c>
       <c r="O34">
-        <v>0.3411889885542141</v>
+        <v>0.1882518728190727</v>
       </c>
       <c r="P34">
-        <v>0.353713462132731</v>
+        <v>0.1954540495114449</v>
       </c>
       <c r="Q34">
-        <v>670.7429902108215</v>
+        <v>405.2496758056442</v>
       </c>
       <c r="R34">
-        <v>6036.686911897394</v>
+        <v>3647.247082250798</v>
       </c>
       <c r="S34">
-        <v>0.06387275728948499</v>
+        <v>0.03541660578799826</v>
       </c>
       <c r="T34">
-        <v>0.07406901450743282</v>
+        <v>0.04127396839519822</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H35">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I35">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J35">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.614618</v>
+        <v>1.939529</v>
       </c>
       <c r="N35">
-        <v>3.229236</v>
+        <v>3.879058</v>
       </c>
       <c r="O35">
-        <v>0.06396911957468498</v>
+        <v>0.07368740595569348</v>
       </c>
       <c r="P35">
-        <v>0.04421154553321532</v>
+        <v>0.05100436869093348</v>
       </c>
       <c r="Q35">
-        <v>125.756809229088</v>
+        <v>158.6268275971077</v>
       </c>
       <c r="R35">
-        <v>754.5408553745282</v>
+        <v>951.7609655826459</v>
       </c>
       <c r="S35">
-        <v>0.01197542765354123</v>
+        <v>0.01386311737138046</v>
       </c>
       <c r="T35">
-        <v>0.009258074566206134</v>
+        <v>0.01077057603374627</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H36">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I36">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J36">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9431123333333332</v>
+        <v>6.591847999999999</v>
       </c>
       <c r="N36">
-        <v>2.829337</v>
+        <v>19.775544</v>
       </c>
       <c r="O36">
-        <v>0.0373649158025986</v>
+        <v>0.2504402767755605</v>
       </c>
       <c r="P36">
-        <v>0.03873651897981777</v>
+        <v>0.2600216694980527</v>
       </c>
       <c r="Q36">
-        <v>73.45563952873067</v>
+        <v>539.1226097894586</v>
       </c>
       <c r="R36">
-        <v>661.100755758576</v>
+        <v>4852.103488105127</v>
       </c>
       <c r="S36">
-        <v>0.00699495082861444</v>
+        <v>0.04711636821016831</v>
       </c>
       <c r="T36">
-        <v>0.008111582095246664</v>
+        <v>0.05490869181659437</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H37">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I37">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J37">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.373875333333332</v>
+        <v>7.233946</v>
       </c>
       <c r="N37">
-        <v>25.121626</v>
+        <v>21.701838</v>
       </c>
       <c r="O37">
-        <v>0.331762331710352</v>
+        <v>0.2748351355218535</v>
       </c>
       <c r="P37">
-        <v>0.3439407685803719</v>
+        <v>0.2853498314856108</v>
       </c>
       <c r="Q37">
-        <v>652.2111377441387</v>
+        <v>591.6374052611674</v>
       </c>
       <c r="R37">
-        <v>5869.900239697249</v>
+        <v>5324.736647350506</v>
       </c>
       <c r="S37">
-        <v>0.06210802693522973</v>
+        <v>0.0517058741870981</v>
       </c>
       <c r="T37">
-        <v>0.07202257336792439</v>
+        <v>0.06025723158845373</v>
       </c>
     </row>
   </sheetData>
